--- a/dist/CredencialesRealizadas.xlsx
+++ b/dist/CredencialesRealizadas.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,186 +495,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SCI230001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Miguel</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nalgon</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Elizondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Herrera</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Director de la Unidad Academica</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>24/04/2023</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>45406</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ELI23450as</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Niels</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C:/Users/Carlos/Documents/GitHub/SCI/Fotos/Imagen de WhatsApp 2023-03-28 a las 03.45.03.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SCI230002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juan </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Calderon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Davila</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Congreso</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>24/04/2023</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>46498</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1231312312</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Perro</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C:/Users/Carlos/Documents/GitHub/SCI/Fotos/190123E8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SCI230003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cata</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Corralco</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sub-director</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Subdirector Administrativo</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>16/04/2025</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>46498</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1231312312</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Perro</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C:/Users/Carlos/Documents/GitHub/SCI/Fotos/190123E9.jpg</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
